--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N2">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O2">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P2">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q2">
-        <v>0.03086391538144445</v>
+        <v>0.040401534726</v>
       </c>
       <c r="R2">
-        <v>0.2777752384330001</v>
+        <v>0.363613812534</v>
       </c>
       <c r="S2">
-        <v>0.01618129412464574</v>
+        <v>0.01588084693230028</v>
       </c>
       <c r="T2">
-        <v>0.01618129412464575</v>
+        <v>0.01588084693230028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.075748</v>
       </c>
       <c r="O3">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P3">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q3">
-        <v>0.05481358860755555</v>
+        <v>0.047667942504</v>
       </c>
       <c r="R3">
-        <v>0.493322297468</v>
+        <v>0.429011482536</v>
       </c>
       <c r="S3">
-        <v>0.02873759820568422</v>
+        <v>0.01873709262823004</v>
       </c>
       <c r="T3">
-        <v>0.02873759820568423</v>
+        <v>0.01873709262823003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N4">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O4">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P4">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q4">
-        <v>0.01263426638833333</v>
+        <v>0.017607138318</v>
       </c>
       <c r="R4">
-        <v>0.113708397495</v>
+        <v>0.158464244862</v>
       </c>
       <c r="S4">
-        <v>0.006623877040618671</v>
+        <v>0.006920931851731186</v>
       </c>
       <c r="T4">
-        <v>0.006623877040618674</v>
+        <v>0.006920931851731186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N5">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O5">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P5">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q5">
-        <v>0.02487165415777778</v>
+        <v>0.02400221754</v>
       </c>
       <c r="R5">
-        <v>0.22384488742</v>
+        <v>0.21601995786</v>
       </c>
       <c r="S5">
-        <v>0.01303967906597583</v>
+        <v>0.009434679780696826</v>
       </c>
       <c r="T5">
-        <v>0.01303967906597583</v>
+        <v>0.009434679780696826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H6">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I6">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J6">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N6">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O6">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P6">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q6">
-        <v>0.01450485315766667</v>
+        <v>0.012459989052</v>
       </c>
       <c r="R6">
-        <v>0.130543678419</v>
+        <v>0.112139901468</v>
       </c>
       <c r="S6">
-        <v>0.007604585882195238</v>
+        <v>0.004897714412457918</v>
       </c>
       <c r="T6">
-        <v>0.00760458588219524</v>
+        <v>0.004897714412457918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N7">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O7">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P7">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q7">
-        <v>0.3402673980665556</v>
+        <v>0.5121875440167778</v>
       </c>
       <c r="R7">
-        <v>3.062406582599</v>
+        <v>4.609687896151</v>
       </c>
       <c r="S7">
-        <v>0.1783949567349147</v>
+        <v>0.2013282921632857</v>
       </c>
       <c r="T7">
-        <v>0.1783949567349147</v>
+        <v>0.2013282921632856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.075748</v>
       </c>
       <c r="O8">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P8">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q8">
         <v>0.6043069048004444</v>
@@ -948,10 +948,10 @@
         <v>5.438762143203999</v>
       </c>
       <c r="S8">
-        <v>0.316825251990198</v>
+        <v>0.2375381410719535</v>
       </c>
       <c r="T8">
-        <v>0.3168252519901981</v>
+        <v>0.2375381410719534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N9">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O9">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P9">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q9">
-        <v>0.1392898113316667</v>
+        <v>0.2232132267603333</v>
       </c>
       <c r="R9">
-        <v>1.253608301985</v>
+        <v>2.008919040843</v>
       </c>
       <c r="S9">
-        <v>0.07302668432920736</v>
+        <v>0.08773961463311582</v>
       </c>
       <c r="T9">
-        <v>0.07302668432920739</v>
+        <v>0.08773961463311579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.768273</v>
       </c>
       <c r="I10">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J10">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N10">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O10">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P10">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q10">
-        <v>0.2742041293622223</v>
+        <v>0.3042863825877777</v>
       </c>
       <c r="R10">
-        <v>2.46783716426</v>
+        <v>2.73857744329</v>
       </c>
       <c r="S10">
-        <v>0.1437593906206101</v>
+        <v>0.119607472791128</v>
       </c>
       <c r="T10">
-        <v>0.1437593906206101</v>
+        <v>0.119607472791128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.768273</v>
       </c>
       <c r="I11">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J11">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N11">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O11">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P11">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q11">
-        <v>0.1599125899063333</v>
+        <v>0.1579606129891111</v>
       </c>
       <c r="R11">
-        <v>1.439213309157</v>
+        <v>1.421645516902</v>
       </c>
       <c r="S11">
-        <v>0.08383876833280557</v>
+        <v>0.0620904213967408</v>
       </c>
       <c r="T11">
-        <v>0.0838387683328056</v>
+        <v>0.06209042139674079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N12">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O12">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P12">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q12">
-        <v>0.01085243084566667</v>
+        <v>0.1083002238738889</v>
       </c>
       <c r="R12">
-        <v>0.09767187761100002</v>
+        <v>0.974702014865</v>
       </c>
       <c r="S12">
-        <v>0.005689698578770916</v>
+        <v>0.04257014714265935</v>
       </c>
       <c r="T12">
-        <v>0.005689698578770917</v>
+        <v>0.04257014714265935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.075748</v>
       </c>
       <c r="O13">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P13">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q13">
-        <v>0.01927366221733333</v>
+        <v>0.1277785331622222</v>
       </c>
       <c r="R13">
-        <v>0.173462959956</v>
+        <v>1.15000679846</v>
       </c>
       <c r="S13">
-        <v>0.01010477100339778</v>
+        <v>0.05022659015666586</v>
       </c>
       <c r="T13">
-        <v>0.01010477100339778</v>
+        <v>0.05022659015666586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H14">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I14">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J14">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N14">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O14">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P14">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q14">
-        <v>0.004442485685</v>
+        <v>0.04719763827166666</v>
       </c>
       <c r="R14">
-        <v>0.039982371165</v>
+        <v>0.424778744445</v>
       </c>
       <c r="S14">
-        <v>0.002329100719240925</v>
+        <v>0.01855222763297796</v>
       </c>
       <c r="T14">
-        <v>0.002329100719240926</v>
+        <v>0.01855222763297796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H15">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I15">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J15">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N15">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O15">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P15">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q15">
-        <v>0.008745420126666667</v>
+        <v>0.06434026703888887</v>
       </c>
       <c r="R15">
-        <v>0.07870878114</v>
+        <v>0.5790624033499999</v>
       </c>
       <c r="S15">
-        <v>0.004585037690916813</v>
+        <v>0.02529057223587014</v>
       </c>
       <c r="T15">
-        <v>0.004585037690916815</v>
+        <v>0.02529057223587014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H16">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I16">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J16">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N16">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O16">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P16">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q16">
-        <v>0.005100225097</v>
+        <v>0.03340020652555555</v>
       </c>
       <c r="R16">
-        <v>0.045902025873</v>
+        <v>0.3006018587299999</v>
       </c>
       <c r="S16">
-        <v>0.002673939497840682</v>
+        <v>0.01312879748100796</v>
       </c>
       <c r="T16">
-        <v>0.002673939497840683</v>
+        <v>0.01312879748100796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N17">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O17">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P17">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q17">
-        <v>0.03568715383644445</v>
+        <v>0.05174294144655555</v>
       </c>
       <c r="R17">
-        <v>0.321184384528</v>
+        <v>0.465686473019</v>
       </c>
       <c r="S17">
-        <v>0.018710015419695</v>
+        <v>0.02033887421635282</v>
       </c>
       <c r="T17">
-        <v>0.01871001541969501</v>
+        <v>0.02033887421635282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H18">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I18">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J18">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.075748</v>
       </c>
       <c r="O18">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P18">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q18">
-        <v>0.06337954678755554</v>
+        <v>0.06104915505288888</v>
       </c>
       <c r="R18">
-        <v>0.570415921088</v>
+        <v>0.5494423954759999</v>
       </c>
       <c r="S18">
-        <v>0.03322854781648205</v>
+        <v>0.02399691727842394</v>
       </c>
       <c r="T18">
-        <v>0.03322854781648206</v>
+        <v>0.02399691727842395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H19">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I19">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J19">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N19">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O19">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P19">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q19">
-        <v>0.01460867821333333</v>
+        <v>0.02254976532966666</v>
       </c>
       <c r="R19">
-        <v>0.13147810392</v>
+        <v>0.202947887967</v>
       </c>
       <c r="S19">
-        <v>0.007659019149733939</v>
+        <v>0.00886375663668218</v>
       </c>
       <c r="T19">
-        <v>0.007659019149733943</v>
+        <v>0.00886375663668218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H20">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I20">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J20">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N20">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O20">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P20">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q20">
-        <v>0.02875845585777778</v>
+        <v>0.03074005344555555</v>
       </c>
       <c r="R20">
-        <v>0.25882610272</v>
+        <v>0.27666048101</v>
       </c>
       <c r="S20">
-        <v>0.0150774464954992</v>
+        <v>0.01208315690902295</v>
       </c>
       <c r="T20">
-        <v>0.01507744649549921</v>
+        <v>0.01208315690902295</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H21">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I21">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J21">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N21">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O21">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P21">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q21">
-        <v>0.01677158972266667</v>
+        <v>0.01595772260422222</v>
       </c>
       <c r="R21">
-        <v>0.150944307504</v>
+        <v>0.143619503438</v>
       </c>
       <c r="S21">
-        <v>0.008792987632525515</v>
+        <v>0.006272587211957421</v>
       </c>
       <c r="T21">
-        <v>0.008792987632525518</v>
+        <v>0.006272587211957421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H22">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I22">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J22">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N22">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O22">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P22">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q22">
-        <v>0.009883934570222226</v>
+        <v>0.01048605813044444</v>
       </c>
       <c r="R22">
-        <v>0.08895541113200002</v>
+        <v>0.094374523174</v>
       </c>
       <c r="S22">
-        <v>0.005181936588825458</v>
+        <v>0.004121810847587034</v>
       </c>
       <c r="T22">
-        <v>0.005181936588825459</v>
+        <v>0.004121810847587034</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H23">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I23">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J23">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.075748</v>
       </c>
       <c r="O23">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P23">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q23">
-        <v>0.01755363558577778</v>
+        <v>0.01237202545511111</v>
       </c>
       <c r="R23">
-        <v>0.157982720272</v>
+        <v>0.111348229096</v>
       </c>
       <c r="S23">
-        <v>0.009202997638500691</v>
+        <v>0.004863138091848294</v>
       </c>
       <c r="T23">
-        <v>0.009202997638500693</v>
+        <v>0.004863138091848294</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H24">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I24">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J24">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N24">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O24">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P24">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q24">
-        <v>0.004046027886666667</v>
+        <v>0.004569862931333333</v>
       </c>
       <c r="R24">
-        <v>0.03641425098</v>
+        <v>0.041128766382</v>
       </c>
       <c r="S24">
-        <v>0.002121246331242635</v>
+        <v>0.001796300417949071</v>
       </c>
       <c r="T24">
-        <v>0.002121246331242636</v>
+        <v>0.001796300417949071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H25">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I25">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J25">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N25">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O25">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P25">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q25">
-        <v>0.007964958408888891</v>
+        <v>0.006229680384444444</v>
       </c>
       <c r="R25">
-        <v>0.07168462568000002</v>
+        <v>0.05606712345999999</v>
       </c>
       <c r="S25">
-        <v>0.004175858218633105</v>
+        <v>0.002448733724930719</v>
       </c>
       <c r="T25">
-        <v>0.004175858218633107</v>
+        <v>0.002448733724930719</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H26">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I26">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J26">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N26">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O26">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P26">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q26">
-        <v>0.004645069097333334</v>
+        <v>0.003233940749777777</v>
       </c>
       <c r="R26">
-        <v>0.041805621876</v>
+        <v>0.029105466748</v>
       </c>
       <c r="S26">
-        <v>0.002435310891839793</v>
+        <v>0.001271182354424238</v>
       </c>
       <c r="T26">
-        <v>0.002435310891839793</v>
+        <v>0.001271182354424238</v>
       </c>
     </row>
   </sheetData>
